--- a/小半道社区7月新就业人员实名制.xlsx
+++ b/小半道社区7月新就业人员实名制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12675"/>
+    <workbookView windowWidth="21000" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="新就业人员" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="721">
   <si>
     <t>（20XX年）新就业人员实名制明细表</t>
   </si>
@@ -362,6 +362,9 @@
     <t>鸡西市滴道区顺鑫源浴池/更夫</t>
   </si>
   <si>
+    <t>公益性岗位安置</t>
+  </si>
+  <si>
     <t>黑龙江省鸡西市滴道区同乐委B座17号楼0-1-02</t>
   </si>
   <si>
@@ -1703,9 +1706,6 @@
     <t>总序号</t>
   </si>
   <si>
-    <t>街道序号</t>
-  </si>
-  <si>
     <t>是否登记失业人员</t>
   </si>
   <si>
@@ -1761,9 +1761,6 @@
   </si>
   <si>
     <t>齐齐哈尔市就业和人力资源服务中心</t>
-  </si>
-  <si>
-    <t>公益性岗位安置</t>
   </si>
   <si>
     <t>鹤岗市就业创业服务中心</t>
@@ -46313,8 +46310,8 @@
   <sheetPr/>
   <dimension ref="A1:AG188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R$1:R$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -47142,7 +47139,7 @@
         <v>94</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>45</v>
@@ -47153,7 +47150,7 @@
         <v>76</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P10" s="73" t="s">
         <v>48</v>
@@ -47223,22 +47220,22 @@
         <v>40</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" s="24">
         <v>13761335167</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H11" s="30">
         <v>45323</v>
       </c>
       <c r="I11" s="74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J11" s="21" t="s">
         <v>36</v>
@@ -47252,7 +47249,7 @@
         <v>61</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P11" s="73" t="s">
         <v>48</v>
@@ -47322,10 +47319,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F12" s="24">
         <v>13846017413</v>
@@ -47337,7 +47334,7 @@
         <v>45323</v>
       </c>
       <c r="I12" s="74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>36</v>
@@ -47351,7 +47348,7 @@
         <v>61</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P12" s="73" t="s">
         <v>48</v>
@@ -47384,7 +47381,7 @@
         <v>54</v>
       </c>
       <c r="Z12" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA12" s="100">
         <f t="shared" si="0"/>
@@ -47421,10 +47418,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="24">
         <v>17703405390</v>
@@ -47436,7 +47433,7 @@
         <v>45323</v>
       </c>
       <c r="I13" s="74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J13" s="21" t="s">
         <v>36</v>
@@ -47450,7 +47447,7 @@
         <v>61</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P13" s="73" t="s">
         <v>48</v>
@@ -47483,7 +47480,7 @@
         <v>54</v>
       </c>
       <c r="Z13" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA13" s="100">
         <f t="shared" si="0"/>
@@ -47502,7 +47499,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="116" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF13" s="21" t="s">
         <v>90</v>
@@ -47520,38 +47517,38 @@
         <v>40</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H14" s="30">
         <v>45352</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L14" s="81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M14" s="76"/>
       <c r="N14" s="72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P14" s="73" t="s">
         <v>48</v>
@@ -47584,7 +47581,7 @@
         <v>54</v>
       </c>
       <c r="Z14" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA14" s="100">
         <f t="shared" si="0"/>
@@ -47606,7 +47603,7 @@
         <v>51</v>
       </c>
       <c r="AF14" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" s="4"/>
     </row>
@@ -47621,38 +47618,38 @@
         <v>40</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H15" s="30">
         <v>45352</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L15" s="81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M15" s="76"/>
       <c r="N15" s="72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P15" s="73" t="s">
         <v>48</v>
@@ -47685,7 +47682,7 @@
         <v>54</v>
       </c>
       <c r="Z15" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA15" s="100">
         <f t="shared" si="0"/>
@@ -47722,38 +47719,38 @@
         <v>40</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E16" s="119" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F16" s="24">
         <v>13555054969</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H16" s="30">
         <v>45352</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L16" s="81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M16" s="76"/>
       <c r="N16" s="72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P16" s="73" t="s">
         <v>48</v>
@@ -47768,7 +47765,7 @@
         <v>49</v>
       </c>
       <c r="T16" s="90" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U16" s="89" t="s">
         <v>52</v>
@@ -47786,7 +47783,7 @@
         <v>54</v>
       </c>
       <c r="Z16" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA16" s="100">
         <f t="shared" si="0"/>
@@ -47805,7 +47802,7 @@
         <v>18</v>
       </c>
       <c r="AE16" s="102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF16" s="21" t="s">
         <v>56</v>
@@ -47825,38 +47822,38 @@
         <v>40</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="30">
         <v>45352</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="76"/>
       <c r="N17" s="72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="73" t="s">
         <v>48</v>
@@ -47871,7 +47868,7 @@
         <v>49</v>
       </c>
       <c r="T17" s="90" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U17" s="89" t="s">
         <v>52</v>
@@ -47908,7 +47905,7 @@
         <v>18</v>
       </c>
       <c r="AE17" s="116" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF17" s="21" t="s">
         <v>90</v>
@@ -47928,38 +47925,38 @@
         <v>40</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="30">
         <v>45352</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="76"/>
       <c r="N18" s="72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="73" t="s">
         <v>48</v>
@@ -47992,7 +47989,7 @@
         <v>54</v>
       </c>
       <c r="Z18" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA18" s="100">
         <f t="shared" si="0"/>
@@ -48011,7 +48008,7 @@
         <v>18</v>
       </c>
       <c r="AE18" s="116" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF18" s="21" t="s">
         <v>56</v>
@@ -48031,10 +48028,10 @@
         <v>40</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F19" s="24">
         <v>18510250952</v>
@@ -48046,26 +48043,26 @@
         <v>45352</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L19" s="82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M19" s="83"/>
       <c r="N19" s="72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P19" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="11" t="s">
         <v>50</v>
@@ -48095,7 +48092,7 @@
         <v>54</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA19" s="100">
         <f t="shared" si="0"/>
@@ -48132,10 +48129,10 @@
         <v>40</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F20" s="24">
         <v>13946883812</v>
@@ -48147,7 +48144,7 @@
         <v>45352</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>36</v>
@@ -48161,7 +48158,7 @@
         <v>61</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P20" s="73" t="s">
         <v>48</v>
@@ -48194,7 +48191,7 @@
         <v>54</v>
       </c>
       <c r="Z20" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA20" s="100">
         <f t="shared" si="0"/>
@@ -48213,7 +48210,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="116" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF20" s="21" t="s">
         <v>56</v>
@@ -48231,10 +48228,10 @@
         <v>40</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F21" s="24">
         <v>13199175981</v>
@@ -48246,7 +48243,7 @@
         <v>45352</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>36</v>
@@ -48260,7 +48257,7 @@
         <v>61</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P21" s="73" t="s">
         <v>48</v>
@@ -48293,7 +48290,7 @@
         <v>54</v>
       </c>
       <c r="Z21" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA21" s="100">
         <f t="shared" si="0"/>
@@ -48330,13 +48327,13 @@
         <v>40</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>43</v>
@@ -48392,7 +48389,7 @@
         <v>54</v>
       </c>
       <c r="Z22" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA22" s="100">
         <f t="shared" si="0"/>
@@ -48429,10 +48426,10 @@
         <v>40</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F23" s="24">
         <v>13945859133</v>
@@ -48444,7 +48441,7 @@
         <v>45352</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>36</v>
@@ -48458,7 +48455,7 @@
         <v>61</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P23" s="73" t="s">
         <v>48</v>
@@ -48491,7 +48488,7 @@
         <v>54</v>
       </c>
       <c r="Z23" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA23" s="100">
         <f t="shared" si="0"/>
@@ -48510,7 +48507,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="116" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF23" s="21" t="s">
         <v>90</v>
@@ -48528,10 +48525,10 @@
         <v>40</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F24" s="24">
         <v>13712425722</v>
@@ -48543,23 +48540,23 @@
         <v>45352</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L24" s="79" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M24" s="75"/>
       <c r="N24" s="72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P24" s="73" t="s">
         <v>48</v>
@@ -48592,7 +48589,7 @@
         <v>54</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA24" s="100">
         <f t="shared" si="0"/>
@@ -48631,10 +48628,10 @@
         <v>40</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F25" s="24">
         <v>13946863352</v>
@@ -48646,26 +48643,26 @@
         <v>45352</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L25" s="86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" s="86"/>
       <c r="N25" s="72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="11" t="s">
         <v>50</v>
@@ -48695,7 +48692,7 @@
         <v>54</v>
       </c>
       <c r="Z25" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA25" s="100">
         <f t="shared" si="0"/>
@@ -48732,10 +48729,10 @@
         <v>40</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F26" s="24">
         <v>15146779910</v>
@@ -48747,23 +48744,23 @@
         <v>45352</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L26" s="75" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M26" s="75"/>
       <c r="N26" s="72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P26" s="73" t="s">
         <v>48</v>
@@ -48796,7 +48793,7 @@
         <v>54</v>
       </c>
       <c r="Z26" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA26" s="100">
         <f t="shared" si="0"/>
@@ -48815,7 +48812,7 @@
         <v>18</v>
       </c>
       <c r="AE26" s="116" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF26" s="21" t="s">
         <v>56</v>
@@ -48833,10 +48830,10 @@
         <v>40</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F27" s="24">
         <v>13045361117</v>
@@ -48848,23 +48845,23 @@
         <v>45352</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L27" s="75" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M27" s="75"/>
       <c r="N27" s="72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P27" s="73" t="s">
         <v>48</v>
@@ -48897,7 +48894,7 @@
         <v>54</v>
       </c>
       <c r="Z27" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA27" s="100">
         <f t="shared" si="0"/>
@@ -48936,10 +48933,10 @@
         <v>40</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F28" s="24">
         <v>18604678060</v>
@@ -48951,23 +48948,23 @@
         <v>45352</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L28" s="80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M28" s="87"/>
       <c r="N28" s="72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P28" s="73" t="s">
         <v>48</v>
@@ -49000,7 +48997,7 @@
         <v>54</v>
       </c>
       <c r="Z28" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA28" s="100">
         <f t="shared" si="0"/>
@@ -49037,10 +49034,10 @@
         <v>40</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F29" s="24">
         <v>13846088767</v>
@@ -49052,23 +49049,23 @@
         <v>45352</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L29" s="81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M29" s="87"/>
       <c r="N29" s="72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P29" s="73" t="s">
         <v>48</v>
@@ -49101,7 +49098,7 @@
         <v>54</v>
       </c>
       <c r="Z29" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA29" s="100">
         <f t="shared" si="0"/>
@@ -49120,7 +49117,7 @@
         <v>18</v>
       </c>
       <c r="AE29" s="116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF29" s="21" t="s">
         <v>90</v>
@@ -49138,10 +49135,10 @@
         <v>40</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F30" s="24">
         <v>13904879283</v>
@@ -49153,23 +49150,23 @@
         <v>45352</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L30" s="81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M30" s="87"/>
       <c r="N30" s="72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P30" s="73" t="s">
         <v>48</v>
@@ -49202,7 +49199,7 @@
         <v>54</v>
       </c>
       <c r="Z30" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA30" s="100">
         <f t="shared" si="0"/>
@@ -49221,7 +49218,7 @@
         <v>18</v>
       </c>
       <c r="AE30" s="116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF30" s="21" t="s">
         <v>90</v>
@@ -49241,10 +49238,10 @@
         <v>40</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F31" s="24">
         <v>18714597170</v>
@@ -49256,23 +49253,23 @@
         <v>45352</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L31" s="81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M31" s="75"/>
       <c r="N31" s="72" t="s">
         <v>61</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P31" s="73" t="s">
         <v>48</v>
@@ -49305,7 +49302,7 @@
         <v>54</v>
       </c>
       <c r="Z31" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA31" s="100">
         <f t="shared" si="0"/>
@@ -49342,10 +49339,10 @@
         <v>40</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F32" s="24">
         <v>13604680583</v>
@@ -49357,23 +49354,23 @@
         <v>45352</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K32" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L32" s="81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M32" s="75"/>
       <c r="N32" s="72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P32" s="73" t="s">
         <v>48</v>
@@ -49406,7 +49403,7 @@
         <v>54</v>
       </c>
       <c r="Z32" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA32" s="100">
         <f t="shared" si="0"/>
@@ -49425,7 +49422,7 @@
         <v>18</v>
       </c>
       <c r="AE32" s="116" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF32" s="21" t="s">
         <v>56</v>
@@ -49443,10 +49440,10 @@
         <v>40</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F33" s="24">
         <v>13097010518</v>
@@ -49458,23 +49455,23 @@
         <v>45352</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K33" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L33" s="81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M33" s="75"/>
       <c r="N33" s="72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P33" s="73" t="s">
         <v>48</v>
@@ -49507,7 +49504,7 @@
         <v>54</v>
       </c>
       <c r="Z33" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA33" s="100">
         <f t="shared" si="0"/>
@@ -49544,10 +49541,10 @@
         <v>40</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F34" s="24">
         <v>15647052665</v>
@@ -49559,23 +49556,23 @@
         <v>45352</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" s="75"/>
       <c r="N34" s="72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P34" s="73" t="s">
         <v>48</v>
@@ -49608,7 +49605,7 @@
         <v>54</v>
       </c>
       <c r="Z34" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA34" s="100">
         <f t="shared" si="0"/>
@@ -49627,7 +49624,7 @@
         <v>18</v>
       </c>
       <c r="AE34" s="116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF34" s="21" t="s">
         <v>56</v>
@@ -49647,10 +49644,10 @@
         <v>40</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F35" s="24">
         <v>17645674988</v>
@@ -49662,23 +49659,23 @@
         <v>45352</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L35" s="75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M35" s="75"/>
       <c r="N35" s="72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P35" s="73" t="s">
         <v>48</v>
@@ -49711,7 +49708,7 @@
         <v>54</v>
       </c>
       <c r="Z35" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA35" s="100">
         <f t="shared" si="0"/>
@@ -49748,10 +49745,10 @@
         <v>40</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F36" s="24">
         <v>15124615425</v>
@@ -49763,23 +49760,23 @@
         <v>45352</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M36" s="75"/>
       <c r="N36" s="72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P36" s="73" t="s">
         <v>48</v>
@@ -49812,7 +49809,7 @@
         <v>54</v>
       </c>
       <c r="Z36" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA36" s="100">
         <f t="shared" ref="AA36:AA63" si="3">LEN(E36)</f>
@@ -49849,10 +49846,10 @@
         <v>40</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E37" s="120" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F37" s="24">
         <v>15946677047</v>
@@ -49864,23 +49861,23 @@
         <v>45352</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M37" s="75"/>
       <c r="N37" s="72" t="s">
         <v>76</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P37" s="73" t="s">
         <v>48</v>
@@ -49913,7 +49910,7 @@
         <v>54</v>
       </c>
       <c r="Z37" s="21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA37" s="100">
         <f t="shared" si="3"/>
@@ -49952,10 +49949,10 @@
         <v>40</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F38" s="24">
         <v>13796873811</v>
@@ -49967,23 +49964,23 @@
         <v>45352</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L38" s="75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M38" s="75"/>
       <c r="N38" s="72" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P38" s="73" t="s">
         <v>48</v>
@@ -50053,10 +50050,10 @@
         <v>40</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F39" s="24">
         <v>13796924726</v>
@@ -50068,26 +50065,26 @@
         <v>45352</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L39" s="79" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M39" s="75"/>
       <c r="N39" s="72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P39" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39" s="11" t="s">
         <v>50</v>
@@ -50117,7 +50114,7 @@
         <v>54</v>
       </c>
       <c r="Z39" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA39" s="100">
         <f t="shared" si="3"/>
@@ -50136,7 +50133,7 @@
         <v>18</v>
       </c>
       <c r="AE39" s="116" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF39" s="21" t="s">
         <v>90</v>
@@ -50154,10 +50151,10 @@
         <v>40</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F40" s="24">
         <v>19214676897</v>
@@ -50169,26 +50166,26 @@
         <v>45352</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L40" s="75" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M40" s="87"/>
       <c r="N40" s="72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P40" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>50</v>
@@ -50218,7 +50215,7 @@
         <v>54</v>
       </c>
       <c r="Z40" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA40" s="100">
         <f t="shared" si="3"/>
@@ -50237,7 +50234,7 @@
         <v>18</v>
       </c>
       <c r="AE40" s="116" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF40" s="21" t="s">
         <v>90</v>
@@ -50255,10 +50252,10 @@
         <v>40</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F41" s="24">
         <v>13604680726</v>
@@ -50270,26 +50267,26 @@
         <v>45352</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L41" s="75" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M41" s="87"/>
       <c r="N41" s="72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P41" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q41" s="11" t="s">
         <v>50</v>
@@ -50319,7 +50316,7 @@
         <v>54</v>
       </c>
       <c r="Z41" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA41" s="100">
         <f t="shared" si="3"/>
@@ -50338,7 +50335,7 @@
         <v>18</v>
       </c>
       <c r="AE41" s="116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF41" s="21" t="s">
         <v>56</v>
@@ -50356,10 +50353,10 @@
         <v>40</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F42" s="24">
         <v>13694706446</v>
@@ -50371,7 +50368,7 @@
         <v>45352</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J42" s="21" t="s">
         <v>36</v>
@@ -50385,7 +50382,7 @@
         <v>68</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P42" s="73" t="s">
         <v>48</v>
@@ -50418,7 +50415,7 @@
         <v>54</v>
       </c>
       <c r="Z42" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA42" s="100">
         <f t="shared" si="3"/>
@@ -50437,7 +50434,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="116" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF42" s="21" t="s">
         <v>90</v>
@@ -50457,10 +50454,10 @@
         <v>40</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F43" s="24">
         <v>13091595200</v>
@@ -50472,23 +50469,23 @@
         <v>45413</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K43" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L43" s="81" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M43" s="87"/>
       <c r="N43" s="72" t="s">
         <v>61</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P43" s="73" t="s">
         <v>48</v>
@@ -50540,7 +50537,7 @@
         <v>18</v>
       </c>
       <c r="AE43" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF43" s="21" t="s">
         <v>56</v>
@@ -50560,10 +50557,10 @@
         <v>40</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F44" s="24">
         <v>16620743341</v>
@@ -50575,7 +50572,7 @@
         <v>45413</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J44" s="21" t="s">
         <v>36</v>
@@ -50589,7 +50586,7 @@
         <v>68</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P44" s="73" t="s">
         <v>48</v>
@@ -50622,7 +50619,7 @@
         <v>54</v>
       </c>
       <c r="Z44" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA44" s="100">
         <f t="shared" si="3"/>
@@ -50641,7 +50638,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF44" s="21" t="s">
         <v>90</v>
@@ -50659,10 +50656,10 @@
         <v>40</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F45" s="24">
         <v>18904870582</v>
@@ -50674,7 +50671,7 @@
         <v>45413</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J45" s="21" t="s">
         <v>36</v>
@@ -50688,7 +50685,7 @@
         <v>61</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P45" s="73" t="s">
         <v>48</v>
@@ -50721,7 +50718,7 @@
         <v>54</v>
       </c>
       <c r="Z45" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA45" s="100">
         <f t="shared" si="3"/>
@@ -50760,10 +50757,10 @@
         <v>40</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F46" s="24">
         <v>15946687771</v>
@@ -50775,7 +50772,7 @@
         <v>45413</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J46" s="21" t="s">
         <v>36</v>
@@ -50789,7 +50786,7 @@
         <v>68</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P46" s="73" t="s">
         <v>48</v>
@@ -50822,7 +50819,7 @@
         <v>54</v>
       </c>
       <c r="Z46" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA46" s="100">
         <f t="shared" si="3"/>
@@ -50841,7 +50838,7 @@
         <v>0</v>
       </c>
       <c r="AE46" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF46" s="21" t="s">
         <v>90</v>
@@ -50859,10 +50856,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F47" s="24">
         <v>15846702612</v>
@@ -50874,23 +50871,23 @@
         <v>45413</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K47" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L47" s="81" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M47" s="87"/>
       <c r="N47" s="72" t="s">
         <v>68</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P47" s="73" t="s">
         <v>48</v>
@@ -50923,7 +50920,7 @@
         <v>54</v>
       </c>
       <c r="Z47" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA47" s="100">
         <f t="shared" si="3"/>
@@ -50960,10 +50957,10 @@
         <v>40</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F48" s="24">
         <v>18403634866</v>
@@ -50975,23 +50972,23 @@
         <v>45413</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K48" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L48" s="81" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M48" s="87"/>
       <c r="N48" s="72" t="s">
         <v>61</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P48" s="73" t="s">
         <v>48</v>
@@ -51024,7 +51021,7 @@
         <v>54</v>
       </c>
       <c r="Z48" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA48" s="100">
         <f t="shared" si="3"/>
@@ -51043,7 +51040,7 @@
         <v>18</v>
       </c>
       <c r="AE48" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF48" s="21" t="s">
         <v>90</v>
@@ -51061,10 +51058,10 @@
         <v>40</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F49" s="24">
         <v>13796927846</v>
@@ -51076,23 +51073,23 @@
         <v>45413</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J49" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K49" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L49" s="81" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M49" s="78"/>
       <c r="N49" s="72" t="s">
         <v>61</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P49" s="73" t="s">
         <v>48</v>
@@ -51110,7 +51107,7 @@
         <v>51</v>
       </c>
       <c r="U49" s="89" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="V49" s="89" t="s">
         <v>50</v>
@@ -51125,7 +51122,7 @@
         <v>54</v>
       </c>
       <c r="Z49" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA49" s="100">
         <f t="shared" si="3"/>
@@ -51144,7 +51141,7 @@
         <v>18</v>
       </c>
       <c r="AE49" s="20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF49" s="21" t="s">
         <v>90</v>
@@ -51162,10 +51159,10 @@
         <v>40</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F50" s="24">
         <v>13504867984</v>
@@ -51177,23 +51174,23 @@
         <v>45413</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K50" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L50" s="81" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M50" s="87"/>
       <c r="N50" s="72" t="s">
         <v>68</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P50" s="73" t="s">
         <v>48</v>
@@ -51245,7 +51242,7 @@
         <v>18</v>
       </c>
       <c r="AE50" s="20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF50" s="21" t="s">
         <v>90</v>
@@ -51263,38 +51260,38 @@
         <v>40</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F51" s="24">
         <v>13946857506</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H51" s="30">
         <v>45413</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K51" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L51" s="81" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M51" s="87"/>
       <c r="N51" s="72" t="s">
         <v>61</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P51" s="73" t="s">
         <v>48</v>
@@ -51327,7 +51324,7 @@
         <v>54</v>
       </c>
       <c r="Z51" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA51" s="100">
         <f t="shared" si="3"/>
@@ -51346,7 +51343,7 @@
         <v>18</v>
       </c>
       <c r="AE51" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF51" s="21" t="s">
         <v>90</v>
@@ -51364,10 +51361,10 @@
         <v>40</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F52" s="24">
         <v>13946899872</v>
@@ -51379,23 +51376,23 @@
         <v>45413</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K52" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L52" s="81" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M52" s="87"/>
       <c r="N52" s="72" t="s">
         <v>61</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P52" s="73" t="s">
         <v>48</v>
@@ -51428,7 +51425,7 @@
         <v>54</v>
       </c>
       <c r="Z52" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA52" s="100">
         <f t="shared" si="3"/>
@@ -51447,7 +51444,7 @@
         <v>18</v>
       </c>
       <c r="AE52" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF52" s="21" t="s">
         <v>90</v>
@@ -51465,10 +51462,10 @@
         <v>40</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F53" s="24">
         <v>15945747828</v>
@@ -51480,23 +51477,23 @@
         <v>45413</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K53" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L53" s="121" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M53" s="78"/>
       <c r="N53" s="72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P53" s="73" t="s">
         <v>48</v>
@@ -51529,7 +51526,7 @@
         <v>54</v>
       </c>
       <c r="Z53" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA53" s="100">
         <f t="shared" si="3"/>
@@ -51548,7 +51545,7 @@
         <v>18</v>
       </c>
       <c r="AE53" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF53" s="21" t="s">
         <v>90</v>
@@ -51566,10 +51563,10 @@
         <v>40</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F54" s="24">
         <v>13796423002</v>
@@ -51581,23 +51578,23 @@
         <v>45413</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J54" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K54" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L54" s="81" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M54" s="87"/>
       <c r="N54" s="72" t="s">
         <v>68</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P54" s="73" t="s">
         <v>48</v>
@@ -51649,7 +51646,7 @@
         <v>18</v>
       </c>
       <c r="AE54" s="20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF54" s="21" t="s">
         <v>90</v>
@@ -51669,10 +51666,10 @@
         <v>40</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F55" s="24">
         <v>13836543838</v>
@@ -51684,23 +51681,23 @@
         <v>45413</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K55" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L55" s="81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M55" s="78"/>
       <c r="N55" s="72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P55" s="73" t="s">
         <v>48</v>
@@ -51752,7 +51749,7 @@
         <v>18</v>
       </c>
       <c r="AE55" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF55" s="21" t="s">
         <v>56</v>
@@ -51770,10 +51767,10 @@
         <v>40</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F56" s="24">
         <v>15045794337</v>
@@ -51785,23 +51782,23 @@
         <v>45413</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J56" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K56" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L56" s="81" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M56" s="87"/>
       <c r="N56" s="72" t="s">
         <v>61</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P56" s="73" t="s">
         <v>48</v>
@@ -51816,7 +51813,7 @@
         <v>49</v>
       </c>
       <c r="T56" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U56" s="89" t="s">
         <v>52</v>
@@ -51834,7 +51831,7 @@
         <v>54</v>
       </c>
       <c r="Z56" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA56" s="100">
         <f t="shared" si="3"/>
@@ -51853,7 +51850,7 @@
         <v>18</v>
       </c>
       <c r="AE56" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF56" s="21" t="s">
         <v>90</v>
@@ -51873,10 +51870,10 @@
         <v>40</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F57" s="24">
         <v>15246385155</v>
@@ -51888,23 +51885,23 @@
         <v>45413</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J57" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K57" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L57" s="81" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M57" s="78"/>
       <c r="N57" s="72" t="s">
         <v>76</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P57" s="73" t="s">
         <v>48</v>
@@ -51937,7 +51934,7 @@
         <v>54</v>
       </c>
       <c r="Z57" s="21" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA57" s="100">
         <f t="shared" si="3"/>
@@ -51956,7 +51953,7 @@
         <v>18</v>
       </c>
       <c r="AE57" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF57" s="21" t="s">
         <v>90</v>
@@ -51974,10 +51971,10 @@
         <v>40</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F58" s="24">
         <v>13846083804</v>
@@ -51989,23 +51986,23 @@
         <v>45413</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K58" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L58" s="81" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M58" s="87"/>
       <c r="N58" s="72" t="s">
         <v>68</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P58" s="73" t="s">
         <v>48</v>
@@ -52020,7 +52017,7 @@
         <v>49</v>
       </c>
       <c r="T58" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U58" s="89" t="s">
         <v>52</v>
@@ -52038,7 +52035,7 @@
         <v>54</v>
       </c>
       <c r="Z58" s="21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA58" s="100">
         <f t="shared" si="3"/>
@@ -52057,7 +52054,7 @@
         <v>18</v>
       </c>
       <c r="AE58" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF58" s="21" t="s">
         <v>90</v>
@@ -52075,10 +52072,10 @@
         <v>40</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F59" s="24">
         <v>18946317793</v>
@@ -52090,23 +52087,23 @@
         <v>45413</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K59" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L59" s="81" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M59" s="87"/>
       <c r="N59" s="72" t="s">
         <v>68</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P59" s="73" t="s">
         <v>48</v>
@@ -52139,7 +52136,7 @@
         <v>54</v>
       </c>
       <c r="Z59" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA59" s="100">
         <f t="shared" si="3"/>
@@ -52158,7 +52155,7 @@
         <v>18</v>
       </c>
       <c r="AE59" s="20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF59" s="21" t="s">
         <v>90</v>
@@ -52176,10 +52173,10 @@
         <v>40</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F60" s="24">
         <v>13846017133</v>
@@ -52191,23 +52188,23 @@
         <v>45413</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J60" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K60" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L60" s="81" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M60" s="87"/>
       <c r="N60" s="72" t="s">
         <v>68</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P60" s="73" t="s">
         <v>48</v>
@@ -52277,10 +52274,10 @@
         <v>40</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F61" s="24">
         <v>13284084555</v>
@@ -52292,7 +52289,7 @@
         <v>45413</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J61" s="21" t="s">
         <v>36</v>
@@ -52306,7 +52303,7 @@
         <v>68</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P61" s="73" t="s">
         <v>48</v>
@@ -52339,7 +52336,7 @@
         <v>54</v>
       </c>
       <c r="Z61" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA61" s="100">
         <f t="shared" si="3"/>
@@ -52358,7 +52355,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF61" s="21" t="s">
         <v>56</v>
@@ -52378,10 +52375,10 @@
         <v>40</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F62" s="24">
         <v>18746784017</v>
@@ -52393,7 +52390,7 @@
         <v>45413</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J62" s="21" t="s">
         <v>36</v>
@@ -52407,7 +52404,7 @@
         <v>68</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P62" s="73" t="s">
         <v>48</v>
@@ -52459,7 +52456,7 @@
         <v>0</v>
       </c>
       <c r="AE62" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF62" s="21" t="s">
         <v>56</v>
@@ -52477,10 +52474,10 @@
         <v>40</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F63" s="24">
         <v>13069801449</v>
@@ -52492,7 +52489,7 @@
         <v>45413</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J63" s="21" t="s">
         <v>36</v>
@@ -52506,7 +52503,7 @@
         <v>68</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P63" s="73" t="s">
         <v>48</v>
@@ -52521,7 +52518,7 @@
         <v>49</v>
       </c>
       <c r="T63" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U63" s="89" t="s">
         <v>52</v>
@@ -52539,7 +52536,7 @@
         <v>54</v>
       </c>
       <c r="Z63" s="21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA63" s="100">
         <f t="shared" si="3"/>
@@ -52576,10 +52573,10 @@
         <v>40</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F64" s="24">
         <v>15561736000</v>
@@ -52591,7 +52588,7 @@
         <v>45413</v>
       </c>
       <c r="I64" s="21" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J64" s="21" t="s">
         <v>36</v>
@@ -52605,7 +52602,7 @@
         <v>68</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P64" s="73" t="s">
         <v>48</v>
@@ -52620,7 +52617,7 @@
         <v>49</v>
       </c>
       <c r="T64" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="U64" s="89" t="s">
         <v>52</v>
@@ -52638,7 +52635,7 @@
         <v>54</v>
       </c>
       <c r="Z64" s="21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA64" s="100">
         <f t="shared" ref="AA64:AA97" si="6">LEN(E64)</f>
@@ -52675,10 +52672,10 @@
         <v>40</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F65" s="24">
         <v>13159895062</v>
@@ -52690,23 +52687,23 @@
         <v>45413</v>
       </c>
       <c r="I65" s="21" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J65" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K65" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L65" s="81" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M65" s="87"/>
       <c r="N65" s="72" t="s">
         <v>68</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P65" s="73" t="s">
         <v>48</v>
@@ -52721,7 +52718,7 @@
         <v>49</v>
       </c>
       <c r="T65" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U65" s="89" t="s">
         <v>52</v>
@@ -52739,7 +52736,7 @@
         <v>54</v>
       </c>
       <c r="Z65" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA65" s="100">
         <f t="shared" si="6"/>
@@ -52758,7 +52755,7 @@
         <v>18</v>
       </c>
       <c r="AE65" s="20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF65" s="21" t="s">
         <v>90</v>
@@ -52776,10 +52773,10 @@
         <v>40</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F66" s="24">
         <v>15084689198</v>
@@ -52791,23 +52788,23 @@
         <v>45413</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J66" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K66" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L66" s="81" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M66" s="87"/>
       <c r="N66" s="72" t="s">
         <v>68</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P66" s="73" t="s">
         <v>48</v>
@@ -52822,7 +52819,7 @@
         <v>49</v>
       </c>
       <c r="T66" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U66" s="89" t="s">
         <v>52</v>
@@ -52840,7 +52837,7 @@
         <v>54</v>
       </c>
       <c r="Z66" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA66" s="100">
         <f t="shared" si="6"/>
@@ -52859,7 +52856,7 @@
         <v>18</v>
       </c>
       <c r="AE66" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF66" s="21" t="s">
         <v>56</v>
@@ -52879,10 +52876,10 @@
         <v>40</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F67" s="24">
         <v>13895949460</v>
@@ -52894,23 +52891,23 @@
         <v>45413</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J67" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K67" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L67" s="81" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M67" s="87"/>
       <c r="N67" s="72" t="s">
         <v>68</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P67" s="73" t="s">
         <v>48</v>
@@ -52925,7 +52922,7 @@
         <v>49</v>
       </c>
       <c r="T67" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U67" s="89" t="s">
         <v>52</v>
@@ -52943,7 +52940,7 @@
         <v>54</v>
       </c>
       <c r="Z67" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA67" s="100">
         <f t="shared" si="6"/>
@@ -52962,7 +52959,7 @@
         <v>18</v>
       </c>
       <c r="AE67" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF67" s="21" t="s">
         <v>90</v>
@@ -52980,10 +52977,10 @@
         <v>40</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F68" s="24">
         <v>18545495385</v>
@@ -52995,23 +52992,23 @@
         <v>45413</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J68" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K68" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L68" s="81" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M68" s="87"/>
       <c r="N68" s="72" t="s">
         <v>68</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P68" s="73" t="s">
         <v>48</v>
@@ -53026,7 +53023,7 @@
         <v>49</v>
       </c>
       <c r="T68" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U68" s="89" t="s">
         <v>52</v>
@@ -53044,7 +53041,7 @@
         <v>54</v>
       </c>
       <c r="Z68" s="21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA68" s="100">
         <f t="shared" si="6"/>
@@ -53063,7 +53060,7 @@
         <v>18</v>
       </c>
       <c r="AE68" s="20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF68" s="21" t="s">
         <v>56</v>
@@ -53083,10 +53080,10 @@
         <v>40</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F69" s="24">
         <v>15246234056</v>
@@ -53098,23 +53095,23 @@
         <v>45413</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J69" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K69" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L69" s="81" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M69" s="87"/>
       <c r="N69" s="72" t="s">
         <v>68</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P69" s="73" t="s">
         <v>48</v>
@@ -53147,7 +53144,7 @@
         <v>54</v>
       </c>
       <c r="Z69" s="21" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA69" s="100">
         <f t="shared" si="6"/>
@@ -53184,10 +53181,10 @@
         <v>40</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F70" s="24">
         <v>13945859941</v>
@@ -53199,23 +53196,23 @@
         <v>45413</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J70" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K70" s="21" t="s">
         <v>45</v>
       </c>
       <c r="L70" s="81" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M70" s="87"/>
       <c r="N70" s="72" t="s">
         <v>68</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P70" s="73" t="s">
         <v>48</v>
@@ -53248,7 +53245,7 @@
         <v>54</v>
       </c>
       <c r="Z70" s="21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA70" s="100">
         <f t="shared" si="6"/>
@@ -53267,7 +53264,7 @@
         <v>18</v>
       </c>
       <c r="AE70" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF70" s="21" t="s">
         <v>56</v>
@@ -53285,10 +53282,10 @@
         <v>40</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F71" s="24">
         <v>13316612201</v>
@@ -53300,7 +53297,7 @@
         <v>45413</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J71" s="21" t="s">
         <v>36</v>
@@ -53314,7 +53311,7 @@
         <v>68</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P71" s="73" t="s">
         <v>48</v>
@@ -53347,7 +53344,7 @@
         <v>54</v>
       </c>
       <c r="Z71" s="21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA71" s="100">
         <f t="shared" si="6"/>
@@ -53386,38 +53383,38 @@
         <v>40</v>
       </c>
       <c r="D72" s="105" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E72" s="105" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F72" s="106">
         <v>13664679290</v>
       </c>
       <c r="G72" s="105" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H72" s="46">
         <v>45413</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J72" s="105" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K72" s="105" t="s">
         <v>45</v>
       </c>
       <c r="L72" s="110" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M72" s="111"/>
       <c r="N72" s="72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P72" s="73" t="s">
         <v>48</v>
@@ -53450,7 +53447,7 @@
         <v>54</v>
       </c>
       <c r="Z72" s="105" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA72" s="100">
         <f t="shared" si="6"/>
@@ -53469,7 +53466,7 @@
         <v>18</v>
       </c>
       <c r="AE72" s="113" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF72" s="21" t="s">
         <v>90</v>
@@ -53489,10 +53486,10 @@
         <v>40</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F73" s="8">
         <v>13796927145</v>
@@ -53504,23 +53501,23 @@
         <v>45444</v>
       </c>
       <c r="I73" s="39" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K73" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L73" s="39" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M73" s="39"/>
       <c r="N73" s="72" t="s">
         <v>76</v>
       </c>
       <c r="O73" s="39" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P73" s="73" t="s">
         <v>48</v>
@@ -53553,7 +53550,7 @@
         <v>54</v>
       </c>
       <c r="Z73" s="21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA73" s="100">
         <f t="shared" si="6"/>
@@ -53572,7 +53569,7 @@
         <v>18</v>
       </c>
       <c r="AE73" s="116" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF73" s="21" t="s">
         <v>90</v>
@@ -53590,13 +53587,13 @@
         <v>40</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G74" s="21" t="s">
         <v>43</v>
@@ -53605,23 +53602,23 @@
         <v>45444</v>
       </c>
       <c r="I74" s="39" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K74" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L74" s="39" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M74" s="39"/>
       <c r="N74" s="72" t="s">
         <v>61</v>
       </c>
       <c r="O74" s="39" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P74" s="73" t="s">
         <v>48</v>
@@ -53654,7 +53651,7 @@
         <v>54</v>
       </c>
       <c r="Z74" s="21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA74" s="100">
         <f t="shared" si="6"/>
@@ -53691,10 +53688,10 @@
         <v>40</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F75" s="8">
         <v>18904671416</v>
@@ -53706,7 +53703,7 @@
         <v>45444</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J75" s="20" t="s">
         <v>36</v>
@@ -53720,7 +53717,7 @@
         <v>68</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P75" s="73" t="s">
         <v>48</v>
@@ -53792,13 +53789,13 @@
         <v>40</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G76" s="21" t="s">
         <v>43</v>
@@ -53807,7 +53804,7 @@
         <v>45444</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J76" s="20" t="s">
         <v>36</v>
@@ -53821,7 +53818,7 @@
         <v>61</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P76" s="73" t="s">
         <v>48</v>
@@ -53854,7 +53851,7 @@
         <v>54</v>
       </c>
       <c r="Z76" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA76" s="100">
         <f t="shared" si="6"/>
@@ -53893,41 +53890,41 @@
         <v>40</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H77" s="30">
         <v>45474</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K77" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L77" s="81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M77" s="78"/>
       <c r="N77" s="72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P77" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q77" s="11" t="s">
         <v>49</v>
@@ -53976,7 +53973,7 @@
         <v>18</v>
       </c>
       <c r="AE77" s="20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF77" s="21" t="s">
         <v>90</v>
@@ -53994,13 +53991,13 @@
         <v>40</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G78" s="21" t="s">
         <v>43</v>
@@ -54009,26 +54006,26 @@
         <v>45474</v>
       </c>
       <c r="I78" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K78" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L78" s="81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M78" s="78"/>
       <c r="N78" s="72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P78" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q78" s="11" t="s">
         <v>49</v>
@@ -54058,7 +54055,7 @@
         <v>54</v>
       </c>
       <c r="Z78" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA78" s="100">
         <f t="shared" si="6"/>
@@ -54095,10 +54092,10 @@
         <v>40</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F79" s="31">
         <v>18744147214</v>
@@ -54110,26 +54107,26 @@
         <v>45474</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J79" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K79" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L79" s="81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M79" s="78"/>
       <c r="N79" s="72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P79" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q79" s="11" t="s">
         <v>49</v>
@@ -54159,7 +54156,7 @@
         <v>54</v>
       </c>
       <c r="Z79" s="21" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA79" s="100">
         <f t="shared" si="6"/>
@@ -54198,13 +54195,13 @@
         <v>40</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G80" s="21" t="s">
         <v>43</v>
@@ -54213,26 +54210,26 @@
         <v>45474</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J80" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K80" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L80" s="81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M80" s="78"/>
       <c r="N80" s="72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P80" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q80" s="11" t="s">
         <v>49</v>
@@ -54262,7 +54259,7 @@
         <v>54</v>
       </c>
       <c r="Z80" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA80" s="100">
         <f t="shared" si="6"/>
@@ -54281,7 +54278,7 @@
         <v>18</v>
       </c>
       <c r="AE80" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF80" s="21" t="s">
         <v>90</v>
@@ -54299,13 +54296,13 @@
         <v>40</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G81" s="21" t="s">
         <v>43</v>
@@ -54314,26 +54311,26 @@
         <v>45474</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J81" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K81" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L81" s="81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M81" s="78"/>
       <c r="N81" s="72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P81" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q81" s="11" t="s">
         <v>49</v>
@@ -54363,7 +54360,7 @@
         <v>54</v>
       </c>
       <c r="Z81" s="21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA81" s="100">
         <f t="shared" si="6"/>
@@ -54382,7 +54379,7 @@
         <v>18</v>
       </c>
       <c r="AE81" s="20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF81" s="21" t="s">
         <v>56</v>
@@ -54400,41 +54397,41 @@
         <v>40</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F82" s="31" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H82" s="30">
         <v>45474</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J82" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K82" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L82" s="81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M82" s="78"/>
       <c r="N82" s="72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O82" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P82" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q82" s="11" t="s">
         <v>49</v>
@@ -54464,7 +54461,7 @@
         <v>54</v>
       </c>
       <c r="Z82" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA82" s="100">
         <f t="shared" si="6"/>
@@ -54501,41 +54498,41 @@
         <v>40</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H83" s="30">
         <v>45474</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J83" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K83" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L83" s="81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M83" s="78"/>
       <c r="N83" s="72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P83" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q83" s="11" t="s">
         <v>49</v>
@@ -54547,7 +54544,7 @@
         <v>49</v>
       </c>
       <c r="T83" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="U83" s="20" t="s">
         <v>52</v>
@@ -54565,7 +54562,7 @@
         <v>54</v>
       </c>
       <c r="Z83" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA83" s="100">
         <f t="shared" si="6"/>
@@ -54602,10 +54599,10 @@
         <v>40</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F84" s="31">
         <v>18174511656</v>
@@ -54617,26 +54614,26 @@
         <v>45474</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J84" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K84" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L84" s="81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M84" s="78"/>
       <c r="N84" s="72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P84" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q84" s="11" t="s">
         <v>49</v>
@@ -54666,7 +54663,7 @@
         <v>54</v>
       </c>
       <c r="Z84" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA84" s="100">
         <f t="shared" si="6"/>
@@ -54685,7 +54682,7 @@
         <v>18</v>
       </c>
       <c r="AE84" s="20" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF84" s="21" t="s">
         <v>56</v>
@@ -54705,13 +54702,13 @@
         <v>40</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G85" s="21" t="s">
         <v>43</v>
@@ -54720,26 +54717,26 @@
         <v>45474</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K85" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L85" s="81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M85" s="78"/>
       <c r="N85" s="72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O85" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P85" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q85" s="11" t="s">
         <v>49</v>
@@ -54769,7 +54766,7 @@
         <v>54</v>
       </c>
       <c r="Z85" s="21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA85" s="100">
         <f t="shared" si="6"/>
@@ -54788,7 +54785,7 @@
         <v>18</v>
       </c>
       <c r="AE85" s="20" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF85" s="21" t="s">
         <v>56</v>
@@ -54806,13 +54803,13 @@
         <v>40</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G86" s="21" t="s">
         <v>43</v>
@@ -54821,26 +54818,26 @@
         <v>45474</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K86" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L86" s="81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M86" s="78"/>
       <c r="N86" s="72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P86" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q86" s="11" t="s">
         <v>49</v>
@@ -54870,7 +54867,7 @@
         <v>54</v>
       </c>
       <c r="Z86" s="21" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA86" s="100">
         <f t="shared" si="6"/>
@@ -54889,7 +54886,7 @@
         <v>18</v>
       </c>
       <c r="AE86" s="20" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF86" s="21" t="s">
         <v>90</v>
@@ -55335,17 +55332,14 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:R1 R56 O189:O1048576 Q4:Q52 Q53:Q86 R4:R52 R53:R55 R57:R80 R81:R86 Q87:R1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G77 G86 G4:G76 G78:G81 G82:G83 G84:G85 G87:G1048576">
       <formula1>"博士研究生,硕士研究生,大学本科,大学专科,中等专科,职业高中,技工学校,普通中学,初级中学,小学,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J87:J1048576">
       <formula1>"单位就业,个体工商户,灵活就业,公益性岗位安置"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
-      <formula1>INDIRECT(#REF!)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3">
+      <formula1>INDIRECT(N4)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K73:K86 K87:K1048576">
       <formula1>"初次就业,失业再就业"</formula1>
@@ -55353,11 +55347,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N4 N5 N6 N7 N8 N9 N10 N11 N12 N13 N14 N15 N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N68 N69 N70 N71 N72 N73 N74 N75 N76 N77 N78 N79 N80 N81 N82 N83 N84 N85 N86 N87:N1048576">
       <formula1>Sheet4!$A$1:$A$20</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K4:K72">
+      <formula1>"初次就业,失业再就业"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
       <formula1>INDIRECT(N3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3">
-      <formula1>INDIRECT(N4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:R1 R56 O189:O1048576 Q4:Q52 Q53:Q86 R4:R52 R53:R55 R57:R80 R81:R86 Q87:R1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59 B60 B61 B62 B63 B64 B65 B66 B67 B68 B69 B70 B71 B72 B73 B74 B75 B76 B77 B78 B79 B80 B81 B82 B83 B84 B85 B86 B87:B1048576">
       <formula1>Sheet2!$A$1:$A$14</formula1>
@@ -55380,9 +55380,6 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J4:J72 J77:J86">
       <formula1>"单位就业,个体工商户,灵活就业,公益性岗位安置"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K4:K72">
-      <formula1>"初次就业,失业再就业"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -55396,8 +55393,8 @@
   <sheetPr/>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -55412,7 +55409,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:14">
       <c r="A1" s="32" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -55433,43 +55430,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:14">
@@ -55492,10 +55489,10 @@
         <v>51</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>36</v>
@@ -55510,7 +55507,7 @@
         <v>54</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>48</v>
@@ -55536,10 +55533,10 @@
         <v>51</v>
       </c>
       <c r="G4" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>496</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>495</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>36</v>
@@ -55554,7 +55551,7 @@
         <v>54</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>48</v>
@@ -55580,10 +55577,10 @@
         <v>51</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>36</v>
@@ -55598,7 +55595,7 @@
         <v>54</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>48</v>
@@ -55609,13 +55606,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="122" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>43</v>
@@ -55624,10 +55621,10 @@
         <v>51</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>36</v>
@@ -55642,7 +55639,7 @@
         <v>54</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>48</v>
@@ -55668,10 +55665,10 @@
         <v>51</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>36</v>
@@ -55686,7 +55683,7 @@
         <v>54</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>48</v>
@@ -55712,10 +55709,10 @@
         <v>51</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>36</v>
@@ -55730,7 +55727,7 @@
         <v>54</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>48</v>
@@ -55756,10 +55753,10 @@
         <v>51</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>36</v>
@@ -55774,7 +55771,7 @@
         <v>54</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>48</v>
@@ -55785,25 +55782,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>36</v>
@@ -55818,7 +55815,7 @@
         <v>54</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>48</v>
@@ -55829,13 +55826,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>43</v>
@@ -55844,10 +55841,10 @@
         <v>51</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>36</v>
@@ -55862,7 +55859,7 @@
         <v>54</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>48</v>
@@ -55873,13 +55870,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>43</v>
@@ -55888,10 +55885,10 @@
         <v>51</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>36</v>
@@ -55906,7 +55903,7 @@
         <v>54</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>48</v>
@@ -55917,40 +55914,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="123" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>51</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J13" s="23">
         <v>45352</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>54</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>48</v>
@@ -55961,40 +55958,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="123" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>51</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J14" s="23">
         <v>45352</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>54</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>48</v>
@@ -56005,28 +56002,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="123" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F15" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>130</v>
-      </c>
       <c r="H15" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J15" s="23">
         <v>45352</v>
@@ -56038,7 +56035,7 @@
         <v>54</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>48</v>
@@ -56049,40 +56046,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="123" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J16" s="23">
         <v>45352</v>
       </c>
       <c r="K16" s="44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>54</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>48</v>
@@ -56093,40 +56090,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="123" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>51</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J17" s="23">
         <v>45352</v>
       </c>
       <c r="K17" s="44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>48</v>
@@ -56137,13 +56134,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="123" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>43</v>
@@ -56152,13 +56149,13 @@
         <v>51</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J18" s="23">
         <v>45352</v>
@@ -56170,10 +56167,10 @@
         <v>54</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:14">
@@ -56181,13 +56178,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="122" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>43</v>
@@ -56196,10 +56193,10 @@
         <v>51</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>36</v>
@@ -56214,7 +56211,7 @@
         <v>54</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>48</v>
@@ -56225,13 +56222,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="122" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>43</v>
@@ -56240,10 +56237,10 @@
         <v>51</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>36</v>
@@ -56258,7 +56255,7 @@
         <v>54</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>48</v>
@@ -56269,13 +56266,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="122" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>43</v>
@@ -56284,10 +56281,10 @@
         <v>51</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>36</v>
@@ -56296,13 +56293,13 @@
         <v>45352</v>
       </c>
       <c r="K21" s="42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>54</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>48</v>
@@ -56313,13 +56310,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="122" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>43</v>
@@ -56328,10 +56325,10 @@
         <v>51</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>36</v>
@@ -56346,7 +56343,7 @@
         <v>54</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>48</v>
@@ -56357,13 +56354,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>43</v>
@@ -56372,13 +56369,13 @@
         <v>51</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J23" s="23">
         <v>45352</v>
@@ -56390,7 +56387,7 @@
         <v>54</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>48</v>
@@ -56401,13 +56398,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>43</v>
@@ -56416,13 +56413,13 @@
         <v>51</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J24" s="23">
         <v>45352</v>
@@ -56434,10 +56431,10 @@
         <v>54</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:14">
@@ -56445,13 +56442,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>43</v>
@@ -56460,13 +56457,13 @@
         <v>51</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J25" s="23">
         <v>45352</v>
@@ -56478,7 +56475,7 @@
         <v>54</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>48</v>
@@ -56489,13 +56486,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>43</v>
@@ -56504,13 +56501,13 @@
         <v>51</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J26" s="23">
         <v>45352</v>
@@ -56522,7 +56519,7 @@
         <v>54</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>48</v>
@@ -56533,13 +56530,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>43</v>
@@ -56548,13 +56545,13 @@
         <v>51</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J27" s="23">
         <v>45352</v>
@@ -56566,7 +56563,7 @@
         <v>54</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>48</v>
@@ -56577,13 +56574,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>43</v>
@@ -56592,13 +56589,13 @@
         <v>51</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J28" s="23">
         <v>45352</v>
@@ -56610,7 +56607,7 @@
         <v>54</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>48</v>
@@ -56621,13 +56618,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>43</v>
@@ -56636,13 +56633,13 @@
         <v>51</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J29" s="23">
         <v>45352</v>
@@ -56654,7 +56651,7 @@
         <v>54</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>48</v>
@@ -56665,13 +56662,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>43</v>
@@ -56680,13 +56677,13 @@
         <v>51</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J30" s="23">
         <v>45352</v>
@@ -56698,7 +56695,7 @@
         <v>54</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N30" s="8" t="s">
         <v>48</v>
@@ -56709,13 +56706,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>43</v>
@@ -56724,13 +56721,13 @@
         <v>51</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J31" s="23">
         <v>45352</v>
@@ -56742,7 +56739,7 @@
         <v>54</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>48</v>
@@ -56753,13 +56750,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>43</v>
@@ -56768,13 +56765,13 @@
         <v>51</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J32" s="23">
         <v>45352</v>
@@ -56786,7 +56783,7 @@
         <v>54</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>48</v>
@@ -56797,13 +56794,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>43</v>
@@ -56812,13 +56809,13 @@
         <v>51</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J33" s="23">
         <v>45352</v>
@@ -56830,7 +56827,7 @@
         <v>54</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N33" s="8" t="s">
         <v>48</v>
@@ -56841,13 +56838,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>43</v>
@@ -56856,13 +56853,13 @@
         <v>51</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J34" s="23">
         <v>45352</v>
@@ -56874,7 +56871,7 @@
         <v>54</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>48</v>
@@ -56885,13 +56882,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C35" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>43</v>
@@ -56900,13 +56897,13 @@
         <v>51</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J35" s="23">
         <v>45352</v>
@@ -56918,7 +56915,7 @@
         <v>54</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N35" s="8" t="s">
         <v>48</v>
@@ -56929,13 +56926,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>43</v>
@@ -56944,13 +56941,13 @@
         <v>51</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J36" s="23">
         <v>45352</v>
@@ -56962,7 +56959,7 @@
         <v>54</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N36" s="8" t="s">
         <v>48</v>
@@ -56973,13 +56970,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>43</v>
@@ -56988,13 +56985,13 @@
         <v>51</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J37" s="23">
         <v>45352</v>
@@ -57006,7 +57003,7 @@
         <v>54</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N37" s="8" t="s">
         <v>48</v>
@@ -57017,13 +57014,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>43</v>
@@ -57032,13 +57029,13 @@
         <v>51</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J38" s="23">
         <v>45352</v>
@@ -57050,10 +57047,10 @@
         <v>54</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:14">
@@ -57061,13 +57058,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>43</v>
@@ -57076,13 +57073,13 @@
         <v>51</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J39" s="23">
         <v>45352</v>
@@ -57094,10 +57091,10 @@
         <v>54</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:14">
@@ -57105,13 +57102,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>43</v>
@@ -57120,13 +57117,13 @@
         <v>51</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J40" s="23">
         <v>45352</v>
@@ -57138,10 +57135,10 @@
         <v>54</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:14">
@@ -57149,13 +57146,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>43</v>
@@ -57164,10 +57161,10 @@
         <v>51</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>36</v>
@@ -57182,7 +57179,7 @@
         <v>54</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>48</v>
@@ -57193,13 +57190,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D42" s="117" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>43</v>
@@ -57208,13 +57205,13 @@
         <v>51</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J42" s="23">
         <v>45413</v>
@@ -57226,7 +57223,7 @@
         <v>54</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N42" s="8" t="s">
         <v>48</v>
@@ -57237,13 +57234,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C43" s="36" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>43</v>
@@ -57252,10 +57249,10 @@
         <v>51</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I43" s="45" t="s">
         <v>36</v>
@@ -57270,7 +57267,7 @@
         <v>54</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N43" s="8" t="s">
         <v>48</v>
@@ -57281,13 +57278,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C44" s="36" t="s">
         <v>63</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>43</v>
@@ -57296,10 +57293,10 @@
         <v>51</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>36</v>
@@ -57314,7 +57311,7 @@
         <v>54</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>48</v>
@@ -57325,13 +57322,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C45" s="36" t="s">
         <v>63</v>
       </c>
       <c r="D45" s="124" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>43</v>
@@ -57340,10 +57337,10 @@
         <v>51</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>36</v>
@@ -57358,7 +57355,7 @@
         <v>54</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N45" s="8" t="s">
         <v>48</v>
@@ -57369,13 +57366,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>59</v>
@@ -57384,13 +57381,13 @@
         <v>51</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J46" s="23">
         <v>45413</v>
@@ -57402,7 +57399,7 @@
         <v>54</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N46" s="8" t="s">
         <v>48</v>
@@ -57413,13 +57410,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>43</v>
@@ -57428,13 +57425,13 @@
         <v>51</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J47" s="23">
         <v>45413</v>
@@ -57446,7 +57443,7 @@
         <v>54</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N47" s="8" t="s">
         <v>48</v>
@@ -57457,13 +57454,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>43</v>
@@ -57472,13 +57469,13 @@
         <v>51</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J48" s="23">
         <v>45413</v>
@@ -57490,7 +57487,7 @@
         <v>54</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>48</v>
@@ -57501,13 +57498,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>43</v>
@@ -57516,13 +57513,13 @@
         <v>51</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J49" s="23">
         <v>45413</v>
@@ -57534,7 +57531,7 @@
         <v>54</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N49" s="8" t="s">
         <v>48</v>
@@ -57545,28 +57542,28 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J50" s="23">
         <v>45413</v>
@@ -57578,7 +57575,7 @@
         <v>54</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N50" s="8" t="s">
         <v>48</v>
@@ -57589,13 +57586,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>43</v>
@@ -57604,13 +57601,13 @@
         <v>51</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J51" s="23">
         <v>45413</v>
@@ -57622,7 +57619,7 @@
         <v>54</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N51" s="8" t="s">
         <v>48</v>
@@ -57633,13 +57630,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>43</v>
@@ -57648,13 +57645,13 @@
         <v>51</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J52" s="46">
         <v>45444</v>
@@ -57666,7 +57663,7 @@
         <v>54</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N52" s="8" t="s">
         <v>48</v>
@@ -57677,13 +57674,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>43</v>
@@ -57692,25 +57689,25 @@
         <v>51</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J53" s="30">
         <v>45444</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>54</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N53" s="8" t="s">
         <v>48</v>
@@ -57721,13 +57718,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>43</v>
@@ -57736,10 +57733,10 @@
         <v>51</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I54" s="20" t="s">
         <v>36</v>
@@ -57754,7 +57751,7 @@
         <v>54</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N54" s="8" t="s">
         <v>48</v>
@@ -57765,13 +57762,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>43</v>
@@ -57780,10 +57777,10 @@
         <v>51</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I55" s="20" t="s">
         <v>36</v>
@@ -57792,13 +57789,13 @@
         <v>45444</v>
       </c>
       <c r="K55" s="31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>54</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N55" s="8" t="s">
         <v>48</v>
@@ -57809,43 +57806,43 @@
         <v>54</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F56" s="20" t="s">
         <v>51</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J56" s="30">
         <v>45474</v>
       </c>
       <c r="K56" s="31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>54</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="1:14">
@@ -57853,13 +57850,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>43</v>
@@ -57868,28 +57865,28 @@
         <v>51</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J57" s="30">
         <v>45474</v>
       </c>
       <c r="K57" s="31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L57" s="8" t="s">
         <v>54</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:14">
@@ -57897,13 +57894,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E58" s="21" t="s">
         <v>43</v>
@@ -57912,13 +57909,13 @@
         <v>51</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J58" s="30">
         <v>45474</v>
@@ -57930,10 +57927,10 @@
         <v>54</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:14">
@@ -57941,13 +57938,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E59" s="21" t="s">
         <v>43</v>
@@ -57956,28 +57953,28 @@
         <v>51</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J59" s="30">
         <v>45474</v>
       </c>
       <c r="K59" s="31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L59" s="8" t="s">
         <v>54</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -57988,6 +57985,9 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M163">
+      <formula1>"就业困难人员,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E42 E43 E44 E45 E50 E3:E27 E29:E37 E38:E41 E52:E55">
       <formula1>"博士研究生,硕士研究生,大学本科,大学专科,中等专科,职业高中,技工学校,普通中学,初级中学,小学,其他"</formula1>
     </dataValidation>
@@ -57997,9 +57997,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I129">
       <formula1>"灵活就业,单位就业"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M163">
-      <formula1>"就业困难人员,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N168">
       <formula1>"第一产业,第二产业,第三产业"</formula1>
@@ -58016,7 +58013,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -58034,7 +58031,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -58054,31 +58051,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>25</v>
@@ -58091,25 +58088,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3" s="23">
         <v>45413</v>
@@ -58133,25 +58130,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I4" s="23">
         <v>45413</v>
@@ -58175,25 +58172,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I5" s="23">
         <v>45413</v>
@@ -58217,25 +58214,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I6" s="23">
         <v>45413</v>
@@ -58251,7 +58248,7 @@
         <v>52</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:13">
@@ -58259,25 +58256,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I7" s="23">
         <v>45413</v>
@@ -58301,25 +58298,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I8" s="23">
         <v>45413</v>
@@ -58335,7 +58332,7 @@
         <v>51</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:13">
@@ -58343,25 +58340,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I9" s="23">
         <v>45413</v>
@@ -58385,25 +58382,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I10" s="23">
         <v>45413</v>
@@ -58427,22 +58424,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>36</v>
@@ -58469,22 +58466,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>36</v>
@@ -58511,22 +58508,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>36</v>
@@ -58545,7 +58542,7 @@
         <v>39</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:13">
@@ -58553,22 +58550,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>36</v>
@@ -58587,7 +58584,7 @@
         <v>41</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:13">
@@ -58595,25 +58592,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I15" s="23">
         <v>45413</v>
@@ -58629,7 +58626,7 @@
         <v>52</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:13">
@@ -58637,25 +58634,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="125" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I16" s="23">
         <v>45413</v>
@@ -58671,7 +58668,7 @@
         <v>32</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:13">
@@ -58679,25 +58676,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="125" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I17" s="23">
         <v>45413</v>
@@ -58713,7 +58710,7 @@
         <v>54</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:13">
@@ -58721,25 +58718,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I18" s="23">
         <v>45413</v>
@@ -58755,7 +58752,7 @@
         <v>45</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:13">
@@ -58763,25 +58760,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="126" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I19" s="23">
         <v>45413</v>
@@ -58805,25 +58802,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="127" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I20" s="23">
         <v>45413</v>
@@ -58847,22 +58844,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>36</v>
@@ -58871,7 +58868,7 @@
         <v>45413</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>54</v>
@@ -58889,25 +58886,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="125" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I22" s="23">
         <v>45413</v>
@@ -58931,31 +58928,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I23" s="30">
         <v>45474</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>54</v>
@@ -58973,31 +58970,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I24" s="30">
         <v>45474</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>54</v>
@@ -59015,31 +59012,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I25" s="30">
         <v>45474</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>54</v>
@@ -59049,7 +59046,7 @@
         <v>53</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:13">
@@ -59057,25 +59054,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I26" s="30">
         <v>45474</v>
@@ -59099,31 +59096,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I27" s="30">
         <v>45474</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>54</v>
@@ -59141,31 +59138,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I28" s="30">
         <v>45474</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>54</v>
@@ -59220,21 +59217,22 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="39" customHeight="1" spans="1:12">
+    <row r="1" customFormat="1" ht="39" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -59246,208 +59244,215 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>542</v>
+        <v>485</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>484</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>486</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>485</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>544</v>
+        <v>492</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>491</v>
+        <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="M2" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:13">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>545</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>545</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>63</v>
+        <v>546</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>547</v>
+        <v>51</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="J3" s="4">
+      <c r="I3" s="4">
         <v>13846033836</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="M3" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>549</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:13">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>550</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>550</v>
+        <v>63</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>547</v>
+        <v>51</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="J4" s="4">
+      <c r="I4" s="4">
         <v>13351173729</v>
       </c>
+      <c r="J4" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="K4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="M4" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>552</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:13">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>553</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>63</v>
+        <v>554</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>547</v>
+        <v>51</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="J5" s="4">
+      <c r="I5" s="4">
         <v>13089797957</v>
       </c>
+      <c r="J5" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="M5" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>555</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:13">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>556</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>556</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>557</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>547</v>
+        <v>51</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="J6" s="4">
+      <c r="I6" s="4">
         <v>15846708504</v>
       </c>
+      <c r="J6" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="K6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="M6" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>558</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -59470,7 +59475,7 @@
         <v>559</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -59494,57 +59499,57 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>562</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -59581,471 +59586,471 @@
         <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>613</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -60062,10 +60067,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -60082,10 +60087,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -60102,10 +60107,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -60122,10 +60127,10 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -60142,10 +60147,10 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -60162,7 +60167,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -60180,7 +60185,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -60209,7 +60214,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="A20" sqref="A1:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -60220,31 +60225,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1" t="s">
         <v>712</v>
-      </c>
-      <c r="B1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -60252,17 +60257,17 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -60277,7 +60282,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -60287,17 +60292,17 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -60307,27 +60312,27 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -60357,25 +60362,25 @@
   <sheetData>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
+        <v>714</v>
+      </c>
+      <c r="E5" t="s">
         <v>715</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" t="s">
         <v>716</v>
-      </c>
-      <c r="F5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" t="s">
-        <v>717</v>
       </c>
       <c r="H5" t="s">
         <v>61</v>
@@ -60384,54 +60389,54 @@
         <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K5" t="s">
         <v>46</v>
       </c>
       <c r="L5" t="s">
+        <v>717</v>
+      </c>
+      <c r="M5" t="s">
+        <v>197</v>
+      </c>
+      <c r="N5" t="s">
         <v>718</v>
-      </c>
-      <c r="M5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N5" t="s">
-        <v>719</v>
       </c>
       <c r="O5" t="s">
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q5" t="s">
+        <v>719</v>
+      </c>
+      <c r="R5" t="s">
+        <v>175</v>
+      </c>
+      <c r="S5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" t="s">
         <v>720</v>
-      </c>
-      <c r="R5" t="s">
-        <v>174</v>
-      </c>
-      <c r="S5" t="s">
-        <v>120</v>
-      </c>
-      <c r="T5" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>48</v>
